--- a/Análise.xlsx
+++ b/Análise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9CFE299-D3D2-4620-A07C-B6CB2A70DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0655832-101E-49E3-9B87-B5330575D154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>Sobre este modelo</t>
   </si>
@@ -55,21 +55,6 @@
     <t>Saiba mais sobre as tabelas desta planilha pressionando Shift e F10 em uma tabela, selecione a opção TABELA e selecione TEXTO ALTERNATIVO.</t>
   </si>
   <si>
-    <t>Projeção de renda mensal</t>
-  </si>
-  <si>
-    <t>Renda 1</t>
-  </si>
-  <si>
-    <t>Renda extra</t>
-  </si>
-  <si>
-    <t>Renda mensal total</t>
-  </si>
-  <si>
-    <t>Renda mensal real</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -77,9 +62,6 @@
   </si>
   <si>
     <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Transporte</t>
   </si>
   <si>
     <t>Pagamento do veículo</t>
@@ -160,20 +142,145 @@
 custo</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Saldo previsto
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(renda menos custo previsto)</t>
-    </r>
+    <t>Diferença</t>
+  </si>
+  <si>
+    <t>Empréstimos</t>
+  </si>
+  <si>
+    <t>Pessoal</t>
+  </si>
+  <si>
+    <t>Estudante</t>
+  </si>
+  <si>
+    <t>Cartão de crédito</t>
+  </si>
+  <si>
+    <t>Impostos</t>
+  </si>
+  <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>Estadual</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Poupanças ou investimentos</t>
+  </si>
+  <si>
+    <t>Aposentadoria</t>
+  </si>
+  <si>
+    <t>Investimentos</t>
+  </si>
+  <si>
+    <t>Presentes e doações</t>
+  </si>
+  <si>
+    <t>Instituição beneficente 1</t>
+  </si>
+  <si>
+    <t>Instituição beneficente 2</t>
+  </si>
+  <si>
+    <t>Instituição beneficente 3</t>
+  </si>
+  <si>
+    <t>Assessoria jurídica</t>
+  </si>
+  <si>
+    <t>ASSESSORIA JURÍDICA</t>
+  </si>
+  <si>
+    <t>Advogado</t>
+  </si>
+  <si>
+    <t>Pensão alimentícia</t>
+  </si>
+  <si>
+    <t>Pagamentos em garantia ou julgamento</t>
+  </si>
+  <si>
+    <t>Custo total previsto</t>
+  </si>
+  <si>
+    <t>Custo total real</t>
+  </si>
+  <si>
+    <t>Diferença total</t>
+  </si>
+  <si>
+    <t>Análise financeira casamento</t>
+  </si>
+  <si>
+    <t>Fotógrafo</t>
+  </si>
+  <si>
+    <t>Fatura</t>
+  </si>
+  <si>
+    <t>Parcela</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Data de pagamento</t>
+  </si>
+  <si>
+    <t>07/01/2025</t>
+  </si>
+  <si>
+    <t>Cerimonialista</t>
+  </si>
+  <si>
+    <t>Entrada (25%)</t>
+  </si>
+  <si>
+    <t>Mensalidade</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Clube XV</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Limpeza</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Projeção de custo</t>
+  </si>
+  <si>
+    <t>Estimativa baixa</t>
+  </si>
+  <si>
+    <t>Estimativa alta</t>
+  </si>
+  <si>
+    <t>Estimativa total</t>
+  </si>
+  <si>
+    <t>Saldo previsto</t>
+  </si>
+  <si>
+    <t>Valor real</t>
   </si>
   <si>
     <r>
@@ -188,125 +295,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Real menos previsto)</t>
+      <t>(Previsto - Real)</t>
     </r>
   </si>
   <si>
-    <t>Diferença</t>
-  </si>
-  <si>
-    <t>Entretenimento</t>
-  </si>
-  <si>
-    <t>Vídeo/DVD</t>
-  </si>
-  <si>
-    <t>CDs</t>
-  </si>
-  <si>
-    <t>Filmes</t>
-  </si>
-  <si>
-    <t>Shows</t>
-  </si>
-  <si>
-    <t>Eventos esportivos</t>
-  </si>
-  <si>
-    <t>Teatro ao vivo</t>
-  </si>
-  <si>
-    <t>Empréstimos</t>
-  </si>
-  <si>
-    <t>Pessoal</t>
-  </si>
-  <si>
-    <t>Estudante</t>
-  </si>
-  <si>
-    <t>Cartão de crédito</t>
-  </si>
-  <si>
-    <t>Impostos</t>
-  </si>
-  <si>
-    <t>Federal</t>
-  </si>
-  <si>
-    <t>Estadual</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Poupanças ou investimentos</t>
-  </si>
-  <si>
-    <t>Aposentadoria</t>
-  </si>
-  <si>
-    <t>Investimentos</t>
-  </si>
-  <si>
-    <t>Presentes e doações</t>
-  </si>
-  <si>
-    <t>Instituição beneficente 1</t>
-  </si>
-  <si>
-    <t>Instituição beneficente 2</t>
-  </si>
-  <si>
-    <t>Instituição beneficente 3</t>
-  </si>
-  <si>
-    <t>Assessoria jurídica</t>
-  </si>
-  <si>
-    <t>ASSESSORIA JURÍDICA</t>
-  </si>
-  <si>
-    <t>Advogado</t>
-  </si>
-  <si>
-    <t>Pensão alimentícia</t>
-  </si>
-  <si>
-    <t>Pagamentos em garantia ou julgamento</t>
-  </si>
-  <si>
-    <t>Custo total previsto</t>
-  </si>
-  <si>
-    <t>Custo total real</t>
-  </si>
-  <si>
-    <t>Diferença total</t>
-  </si>
-  <si>
-    <t>Análise financeira casamento</t>
-  </si>
-  <si>
-    <t>Fotógrafo</t>
-  </si>
-  <si>
-    <t>Fatura</t>
-  </si>
-  <si>
-    <t>Parcela</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Valor total</t>
-  </si>
-  <si>
-    <t>Data de pagamento</t>
-  </si>
-  <si>
-    <t>07/01/2025</t>
+    <t>Buffet</t>
   </si>
 </sst>
 </file>
@@ -790,7 +783,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1057,6 +1050,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,6 +1068,109 @@
     <cellStyle name="Título 3" xfId="3" builtinId="18" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="173">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3964,26 +4066,23 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4016,123 +4115,23 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4849,12 +4848,12 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Animais de estimação" displayName="Animais_de_estimação" ref="B46:E52" totalsRowCount="1" headerRowDxfId="38" dataDxfId="36" totalsRowDxfId="35" headerRowBorderDxfId="37" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Animais de estimação" displayName="Animais_de_estimação" ref="B46:E52" totalsRowCount="1" headerRowDxfId="42" dataDxfId="40" totalsRowDxfId="39" headerRowBorderDxfId="41" totalsRowBorderDxfId="38">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Estimado _x000a_custo" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Real _x000a_custo" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Estimado _x000a_custo" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Real _x000a_custo" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
       <calculatedColumnFormula>Animais_de_estimação[[#This Row],[Estimado 
 custo]]-Animais_de_estimação[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -4870,12 +4869,12 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Assessoria jurídica" displayName="Assessoria_jurídica" ref="G64:J69" totalsRowCount="1" headerRowDxfId="25" dataDxfId="23" totalsRowDxfId="22" headerRowBorderDxfId="24" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Assessoria jurídica" displayName="Assessoria_jurídica" ref="G64:J69" totalsRowCount="1" headerRowDxfId="29" dataDxfId="27" totalsRowDxfId="26" headerRowBorderDxfId="28" totalsRowBorderDxfId="25">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="ASSESSORIA JURÍDICA" totalsRowLabel="Subtotal" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Estimado _x000a_custo" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Real _x000a_custo" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="ASSESSORIA JURÍDICA" totalsRowLabel="Subtotal" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Estimado _x000a_custo" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Real _x000a_custo" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>Assessoria_jurídica[[#This Row],[Estimado 
 custo]]-Assessoria_jurídica[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -4891,7 +4890,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CuidadosPessoais" displayName="CuidadosPessoais" ref="B55:E63" totalsRowCount="1" headerRowDxfId="12" dataDxfId="10" totalsRowDxfId="9" headerRowBorderDxfId="11" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CuidadosPessoais" displayName="CuidadosPessoais" ref="B55:E63" totalsRowCount="1" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="13" headerRowBorderDxfId="15" totalsRowBorderDxfId="12">
   <autoFilter ref="B55:E62" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4899,10 +4898,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Estimado _x000a_custo" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Real _x000a_custo" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Estimado _x000a_custo" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Real _x000a_custo" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>CuidadosPessoais[[#This Row],[Estimado 
 custo]]-CuidadosPessoais[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -4926,13 +4925,11 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Estimado _x000a_custo" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Real _x000a_custo" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135">
-      <calculatedColumnFormula>Entretenimento[[#This Row],[Estimado 
-custo]]-Entretenimento[[#This Row],[Real 
-custo]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="142" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Parcela" dataDxfId="141" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Data de pagamento" dataDxfId="140" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Valor" totalsRowFunction="sum" dataDxfId="139" totalsRowDxfId="0">
+      <calculatedColumnFormula>Entretenimento[[#This Row],[Parcela]]-Entretenimento[[#This Row],[Data de pagamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -4945,7 +4942,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Empréstimos" displayName="Empréstimos" ref="G29:J36" totalsRowCount="1" headerRowDxfId="134" dataDxfId="132" totalsRowDxfId="130" headerRowBorderDxfId="133" tableBorderDxfId="131" totalsRowBorderDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Empréstimos" displayName="Empréstimos" ref="G29:J36" totalsRowCount="1" headerRowDxfId="138" dataDxfId="136" totalsRowDxfId="134" headerRowBorderDxfId="137" tableBorderDxfId="135" totalsRowBorderDxfId="133">
   <autoFilter ref="G29:J35" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4953,10 +4950,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Estimado _x000a_custo" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Real _x000a_custo" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Estimado _x000a_custo" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Real _x000a_custo" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="126" totalsRowDxfId="125">
       <calculatedColumnFormula>Empréstimos[[#This Row],[Estimado 
 custo]]-Empréstimos[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -4972,7 +4969,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Transporte" displayName="Transporte" ref="B20:E28" totalsRowCount="1" headerRowDxfId="120" dataDxfId="118" totalsRowDxfId="116" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Transporte" displayName="Transporte" ref="B20:E28" totalsRowCount="1" headerRowDxfId="124" dataDxfId="122" totalsRowDxfId="120" headerRowBorderDxfId="123" tableBorderDxfId="121" totalsRowBorderDxfId="119">
   <autoFilter ref="B20:E27" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4980,10 +4977,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Estimado _x000a_custo" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Real _x000a_custo" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="107">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Estimado _x000a_custo" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Real _x000a_custo" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="111">
       <calculatedColumnFormula>Transporte[[#This Row],[Estimado 
 custo]]-Transporte[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -4999,7 +4996,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Seguro" displayName="Seguro" ref="B31:E36" totalsRowCount="1" headerRowDxfId="106" dataDxfId="104" totalsRowDxfId="102" headerRowBorderDxfId="105" tableBorderDxfId="103" totalsRowBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Seguro" displayName="Seguro" ref="B31:E36" totalsRowCount="1" headerRowDxfId="110" dataDxfId="108" totalsRowDxfId="106" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="105">
   <autoFilter ref="B31:E35" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5007,10 +5004,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Estimado_x000a_custo" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Real _x000a_custo" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Estimado_x000a_custo" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Real _x000a_custo" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
       <calculatedColumnFormula>Seguro[[#This Row],[Estimado
 custo]]-Seguro[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -5026,7 +5023,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Impostos" displayName="Impostos" ref="G40:J45" totalsRowCount="1" headerRowDxfId="92" dataDxfId="90" totalsRowDxfId="88" headerRowBorderDxfId="91" tableBorderDxfId="89" totalsRowBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Impostos" displayName="Impostos" ref="G40:J45" totalsRowCount="1" headerRowDxfId="96" dataDxfId="94" totalsRowDxfId="92" headerRowBorderDxfId="95" tableBorderDxfId="93" totalsRowBorderDxfId="91">
   <autoFilter ref="G40:J44" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5034,10 +5031,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Estimado _x000a_custo" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Real _x000a_custo" dataDxfId="82" totalsRowDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Estimado _x000a_custo" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Real _x000a_custo" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83">
       <calculatedColumnFormula>Impostos[[#This Row],[Estimado 
 custo]]-Impostos[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -5053,7 +5050,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Poupança" displayName="Poupança" ref="G48:J52" totalsRowCount="1" headerRowDxfId="78" dataDxfId="76" totalsRowDxfId="75" headerRowBorderDxfId="77" totalsRowBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Poupança" displayName="Poupança" ref="G48:J52" totalsRowCount="1" headerRowDxfId="82" dataDxfId="80" totalsRowDxfId="79" headerRowBorderDxfId="81" totalsRowBorderDxfId="78">
   <autoFilter ref="G48:J51" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5061,10 +5058,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Estimado _x000a_custo" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Real _x000a_custo" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Estimado _x000a_custo" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Real _x000a_custo" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>Poupança[[#This Row],[Estimado 
 custo]]-Poupança[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -5080,7 +5077,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Alimentação" displayName="Alimentação" ref="B39:E43" totalsRowCount="1" headerRowDxfId="65" dataDxfId="63" totalsRowDxfId="61" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Alimentação" displayName="Alimentação" ref="B39:E43" totalsRowCount="1" headerRowDxfId="69" dataDxfId="67" totalsRowDxfId="65" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="64">
   <autoFilter ref="B39:E42" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5088,10 +5085,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Estimado _x000a_custo" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Real _x000a_custo" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Estimado _x000a_custo" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Real _x000a_custo" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>Alimentação[[#This Row],[Estimado 
 custo]]-Alimentação[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -5107,7 +5104,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Presentes" displayName="Presentes" ref="G55:J59" totalsRowCount="1" headerRowDxfId="51" dataDxfId="49" totalsRowDxfId="48" headerRowBorderDxfId="50" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Presentes" displayName="Presentes" ref="G55:J59" totalsRowCount="1" headerRowDxfId="55" dataDxfId="53" totalsRowDxfId="52" headerRowBorderDxfId="54" totalsRowBorderDxfId="51">
   <autoFilter ref="G55:J58" xr:uid="{00000000-0009-0000-0100-000009000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5115,10 +5112,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Estimado _x000a_custo" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Real _x000a_custo" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Estimado _x000a_custo" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Real _x000a_custo" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>Presentes[[#This Row],[Estimado 
 custo]]-Presentes[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -5404,8 +5401,8 @@
   </sheetPr>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5425,7 +5422,7 @@
     <row r="2" spans="1:10" s="1" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="84" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -5439,26 +5436,26 @@
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="90" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C4" s="91"/>
       <c r="D4" s="13"/>
       <c r="E4" s="87" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87"/>
       <c r="H4" s="93">
-        <f>C7-J73</f>
-        <v>4599</v>
+        <f>C7</f>
+        <v>60000</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="C5" s="50">
-        <v>4300</v>
+        <v>30000</v>
       </c>
       <c r="E5" s="87"/>
       <c r="F5" s="87"/>
@@ -5468,13 +5465,13 @@
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="C6" s="51">
-        <v>300</v>
+        <v>30000</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" s="88"/>
       <c r="G6" s="88"/>
@@ -5486,11 +5483,11 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C7" s="52">
         <f>SUM(C5:C6)</f>
-        <v>4600</v>
+        <v>60000</v>
       </c>
       <c r="E7" s="88"/>
       <c r="F7" s="88"/>
@@ -5500,19 +5497,19 @@
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E8" s="89" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F8" s="89"/>
       <c r="G8" s="89"/>
       <c r="H8" s="95">
-        <f>H6-H4</f>
-        <v>-909</v>
+        <f>H4-H6</f>
+        <v>56310</v>
       </c>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="90" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C9" s="92"/>
       <c r="D9" s="13"/>
@@ -5524,19 +5521,19 @@
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C10" s="51">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C11" s="53">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E11" s="15"/>
       <c r="H11" s="63"/>
@@ -5544,11 +5541,11 @@
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C12" s="52">
         <f>SUM(C10:C11)</f>
-        <v>4300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5558,13 +5555,13 @@
     <row r="14" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
       <c r="B14" s="27" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="G14" s="26" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -5572,60 +5569,61 @@
     </row>
     <row r="15" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>43</v>
+        <v>7</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C16" s="71">
         <v>1</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E16" s="54">
         <v>3690</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
+        <v>67</v>
+      </c>
+      <c r="H16" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="96">
+        <v>45538</v>
+      </c>
       <c r="J16" s="55">
-        <f>Entretenimento[[#This Row],[Estimado 
-custo]]-Entretenimento[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="58" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
@@ -5635,15 +5633,16 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
+        <v>68</v>
+      </c>
+      <c r="H17" s="97">
+        <v>1</v>
+      </c>
+      <c r="I17" s="96">
+        <v>45572</v>
+      </c>
       <c r="J17" s="55">
-        <f>Entretenimento[[#This Row],[Estimado 
-custo]]-Entretenimento[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5653,66 +5652,69 @@
       <c r="E18" s="65"/>
       <c r="F18" s="5"/>
       <c r="G18" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
+        <v>68</v>
+      </c>
+      <c r="H18" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="96">
+        <v>45601</v>
+      </c>
       <c r="J18" s="55">
-        <f>Entretenimento[[#This Row],[Estimado 
-custo]]-Entretenimento[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="75" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
       <c r="F19" s="5"/>
       <c r="G19" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
+        <v>68</v>
+      </c>
+      <c r="H19" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="96">
+        <v>45630</v>
+      </c>
       <c r="J19" s="55">
-        <f>Entretenimento[[#This Row],[Estimado 
-custo]]-Entretenimento[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+        <v>68</v>
+      </c>
+      <c r="H20" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="96">
+        <v>45663</v>
+      </c>
       <c r="J20" s="55">
-        <f>Entretenimento[[#This Row],[Estimado 
-custo]]-Entretenimento[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
+        <v>367.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="55"/>
@@ -5723,21 +5725,14 @@
         <v>0</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="G21" s="35"/>
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
-      <c r="J21" s="55">
-        <f>Entretenimento[[#This Row],[Estimado 
-custo]]-Entretenimento[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
@@ -5748,21 +5743,14 @@
         <v>0</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="35" t="s">
-        <v>13</v>
-      </c>
+      <c r="G22" s="35"/>
       <c r="H22" s="55"/>
       <c r="I22" s="55"/>
-      <c r="J22" s="55">
-        <f>Entretenimento[[#This Row],[Estimado 
-custo]]-Entretenimento[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -5773,21 +5761,14 @@
         <v>0</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="35" t="s">
-        <v>13</v>
-      </c>
+      <c r="G23" s="35"/>
       <c r="H23" s="55"/>
       <c r="I23" s="55"/>
-      <c r="J23" s="55">
-        <f>Entretenimento[[#This Row],[Estimado 
-custo]]-Entretenimento[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -5798,21 +5779,14 @@
         <v>0</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="35" t="s">
-        <v>13</v>
-      </c>
+      <c r="G24" s="35"/>
       <c r="H24" s="55"/>
       <c r="I24" s="55"/>
-      <c r="J24" s="55">
-        <f>Entretenimento[[#This Row],[Estimado 
-custo]]-Entretenimento[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
@@ -5824,18 +5798,18 @@
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
       <c r="J25" s="57">
-        <f>SUBTOTAL(109,Entretenimento[Diferença])</f>
-        <v>0</v>
+        <f>SUBTOTAL(109,Entretenimento[Valor])</f>
+        <v>2695</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -5853,7 +5827,7 @@
     </row>
     <row r="27" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -5872,7 +5846,7 @@
     <row r="28" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -5882,7 +5856,7 @@
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="73" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H28" s="73"/>
       <c r="I28" s="73"/>
@@ -5895,28 +5869,28 @@
       <c r="E29" s="65"/>
       <c r="F29" s="5"/>
       <c r="G29" s="41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="73" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
       <c r="E30" s="74"/>
       <c r="F30" s="5"/>
       <c r="G30" s="35" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H30" s="55"/>
       <c r="I30" s="55"/>
@@ -5929,20 +5903,20 @@
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="35" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H31" s="55"/>
       <c r="I31" s="55"/>
@@ -5955,7 +5929,7 @@
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -5967,7 +5941,7 @@
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="35" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H32" s="55"/>
       <c r="I32" s="55"/>
@@ -5980,7 +5954,7 @@
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -5992,7 +5966,7 @@
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="35" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H33" s="55"/>
       <c r="I33" s="55"/>
@@ -6005,7 +5979,7 @@
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C34" s="55"/>
       <c r="D34" s="55"/>
@@ -6017,7 +5991,7 @@
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="35" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H34" s="55"/>
       <c r="I34" s="55"/>
@@ -6030,7 +6004,7 @@
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C35" s="55"/>
       <c r="D35" s="55"/>
@@ -6042,7 +6016,7 @@
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H35" s="55"/>
       <c r="I35" s="55"/>
@@ -6055,7 +6029,7 @@
     </row>
     <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="60"/>
@@ -6065,7 +6039,7 @@
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
@@ -6087,7 +6061,7 @@
     </row>
     <row r="38" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="75" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C38" s="76"/>
       <c r="D38" s="76"/>
@@ -6101,20 +6075,20 @@
     <row r="39" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="44" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="73" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H39" s="74"/>
       <c r="I39" s="74"/>
@@ -6122,7 +6096,7 @@
     </row>
     <row r="40" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="35" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
@@ -6134,21 +6108,21 @@
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J40" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="35" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C41" s="55"/>
       <c r="D41" s="55"/>
@@ -6160,7 +6134,7 @@
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="35" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H41" s="55"/>
       <c r="I41" s="55"/>
@@ -6173,7 +6147,7 @@
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C42" s="55"/>
       <c r="D42" s="55"/>
@@ -6185,7 +6159,7 @@
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="35" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
@@ -6198,7 +6172,7 @@
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C43" s="60"/>
       <c r="D43" s="60"/>
@@ -6208,7 +6182,7 @@
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="35" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H43" s="55"/>
       <c r="I43" s="55"/>
@@ -6226,7 +6200,7 @@
       <c r="E44" s="67"/>
       <c r="F44" s="5"/>
       <c r="G44" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
@@ -6239,14 +6213,14 @@
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="75" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C45" s="76"/>
       <c r="D45" s="76"/>
       <c r="E45" s="76"/>
       <c r="F45" s="5"/>
       <c r="G45" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H45" s="59"/>
       <c r="I45" s="59"/>
@@ -6257,16 +6231,16 @@
     </row>
     <row r="46" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="47" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="37"/>
@@ -6277,7 +6251,7 @@
     <row r="47" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="35" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="55"/>
@@ -6289,7 +6263,7 @@
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="73" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="H47" s="74"/>
       <c r="I47" s="74"/>
@@ -6297,7 +6271,7 @@
     </row>
     <row r="48" spans="1:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="35" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C48" s="55"/>
       <c r="D48" s="55"/>
@@ -6309,21 +6283,21 @@
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I48" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J48" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="35" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="55"/>
@@ -6335,7 +6309,7 @@
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="35" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H49" s="55"/>
       <c r="I49" s="55"/>
@@ -6348,7 +6322,7 @@
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="35" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
@@ -6360,7 +6334,7 @@
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="35" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H50" s="55"/>
       <c r="I50" s="55"/>
@@ -6373,7 +6347,7 @@
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
@@ -6385,7 +6359,7 @@
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H51" s="55"/>
       <c r="I51" s="55"/>
@@ -6398,7 +6372,7 @@
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C52" s="61"/>
       <c r="D52" s="61"/>
@@ -6408,7 +6382,7 @@
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H52" s="59"/>
       <c r="I52" s="59"/>
@@ -6431,14 +6405,14 @@
     <row r="54" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="77" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C54" s="78"/>
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
       <c r="F54" s="39"/>
       <c r="G54" s="73" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="H54" s="74"/>
       <c r="I54" s="74"/>
@@ -6446,34 +6420,34 @@
     </row>
     <row r="55" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H55" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J55" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="35" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="55"/>
@@ -6485,7 +6459,7 @@
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="35" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H56" s="55"/>
       <c r="I56" s="55"/>
@@ -6498,7 +6472,7 @@
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="35" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
@@ -6510,7 +6484,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="35" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
@@ -6523,7 +6497,7 @@
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="35" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="55"/>
@@ -6535,7 +6509,7 @@
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="35" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H58" s="55"/>
       <c r="I58" s="55"/>
@@ -6548,7 +6522,7 @@
     </row>
     <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C59" s="55"/>
       <c r="D59" s="55"/>
@@ -6560,7 +6534,7 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H59" s="60"/>
       <c r="I59" s="60"/>
@@ -6571,7 +6545,7 @@
     </row>
     <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C60" s="55"/>
       <c r="D60" s="55"/>
@@ -6589,7 +6563,7 @@
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C61" s="55"/>
       <c r="D61" s="55"/>
@@ -6607,7 +6581,7 @@
     </row>
     <row r="62" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C62" s="55"/>
       <c r="D62" s="55"/>
@@ -6626,7 +6600,7 @@
     <row r="63" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C63" s="60"/>
       <c r="D63" s="60"/>
@@ -6636,7 +6610,7 @@
       </c>
       <c r="F63" s="39"/>
       <c r="G63" s="75" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H63" s="76"/>
       <c r="I63" s="76"/>
@@ -6649,22 +6623,22 @@
       <c r="E64" s="21"/>
       <c r="F64" s="5"/>
       <c r="G64" s="49" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H64" s="32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I64" s="32" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J64" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="5"/>
       <c r="G65" s="35" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H65" s="55"/>
       <c r="I65" s="55"/>
@@ -6678,7 +6652,7 @@
     <row r="66" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="5"/>
       <c r="G66" s="35" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
@@ -6692,7 +6666,7 @@
     <row r="67" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="5"/>
       <c r="G67" s="35" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H67" s="55"/>
       <c r="I67" s="55"/>
@@ -6706,7 +6680,7 @@
     <row r="68" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="5"/>
       <c r="G68" s="35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
@@ -6720,7 +6694,7 @@
     <row r="69" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F69" s="5"/>
       <c r="G69" s="36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H69" s="60"/>
       <c r="I69" s="60"/>
@@ -6753,7 +6727,7 @@
     <row r="73" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="5"/>
       <c r="G73" s="86" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H73" s="86"/>
       <c r="I73" s="86"/>
@@ -6763,14 +6737,13 @@
 custo],Alimentação[Estimado 
 custo],Animais_de_estimação[Estimado 
 custo],CuidadosPessoais[Estimado 
-custo],Entretenimento[Estimado 
-custo],Empréstimos[Estimado 
+custo],Entretenimento[Parcela],Empréstimos[Estimado 
 custo],Impostos[Estimado 
 custo],Poupança[Estimado 
 custo],Presentes[Estimado 
 custo],Assessoria_jurídica[Estimado 
 custo])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6783,7 +6756,7 @@
     <row r="75" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="5"/>
       <c r="G75" s="83" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="H75" s="83"/>
       <c r="I75" s="83"/>
@@ -6791,16 +6764,14 @@
         <f>SUBTOTAL(109,Moradia[Data de pagamento],Transporte[Real 
 custo],Seguro[Real 
 custo],Alimentação[Real 
-custo],Entretenimento[Real 
-custo],CuidadosPessoais[Real 
-custo],Entretenimento[Real 
-custo],Empréstimos[Real 
+custo],Entretenimento[Data de pagamento],CuidadosPessoais[Real 
+custo],Entretenimento[Data de pagamento],Empréstimos[Real 
 custo],Impostos[Real 
 custo],Poupança[Real 
 custo],Presentes[Real 
 custo],Animais_de_estimação[Real 
 custo])</f>
-        <v>0</v>
+        <v>456008</v>
       </c>
     </row>
     <row r="76" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -6813,13 +6784,13 @@
     <row r="77" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="5"/>
       <c r="G77" s="79" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="H77" s="79"/>
       <c r="I77" s="79"/>
       <c r="J77" s="80">
         <f>J73-J75</f>
-        <v>1</v>
+        <v>-456006</v>
       </c>
     </row>
     <row r="78" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6891,7 +6862,7 @@
     <brk id="44" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="J16:J24 E21 J30:J35 J41:J44 E32:E35 E40:E42 J49:J51 J56:J58 J74 E56 J76" emptyCellReference="1"/>
+    <ignoredError sqref="E21 J30:J35 J41:J44 E32:E35 E40:E42 J49:J51 J56:J58 J74 E56 J76" emptyCellReference="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="12">
